--- a/data_quarter/zb/建筑业/国有及国有控股建筑业企业总收入.xlsx
+++ b/data_quarter/zb/建筑业/国有及国有控股建筑业企业总收入.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,36 @@
           <t>国有及国有控股建筑业企业总收入_累计值</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业主营业务成本</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业主营业务收入</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业主营业务税金及附加</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业其他业务收入</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业总收入</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2003年第二季度</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -481,11 +506,26 @@
       <c r="F2" t="n">
         <v>3296.99</v>
       </c>
+      <c r="G2" t="n">
+        <v>2851.29</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3177.37</v>
+      </c>
+      <c r="I2" t="n">
+        <v>99.67</v>
+      </c>
+      <c r="J2" t="n">
+        <v>119.62</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3296.99</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年第一季度</t>
+          <t>2004年A</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -503,55 +543,100 @@
       <c r="F3" t="n">
         <v>1464.18</v>
       </c>
+      <c r="G3" t="n">
+        <v>1274.97</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1415.74</v>
+      </c>
+      <c r="I3" t="n">
+        <v>45.47</v>
+      </c>
+      <c r="J3" t="n">
+        <v>48.45</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1464.18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5881.41</v>
+        <v>3410.36</v>
       </c>
       <c r="C4" t="n">
-        <v>6505.86</v>
+        <v>3777.82</v>
       </c>
       <c r="D4" t="n">
-        <v>205.58</v>
+        <v>118.92</v>
       </c>
       <c r="E4" t="n">
-        <v>192.81</v>
+        <v>138.15</v>
       </c>
       <c r="F4" t="n">
-        <v>6698.67</v>
+        <v>3915.97</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2135.39</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2362.08</v>
+      </c>
+      <c r="I4" t="n">
+        <v>73.45</v>
+      </c>
+      <c r="J4" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2451.79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3410.36</v>
+        <v>5881.41</v>
       </c>
       <c r="C5" t="n">
-        <v>3777.82</v>
+        <v>6505.86</v>
       </c>
       <c r="D5" t="n">
-        <v>118.92</v>
+        <v>205.58</v>
       </c>
       <c r="E5" t="n">
-        <v>138.15</v>
+        <v>192.81</v>
       </c>
       <c r="F5" t="n">
-        <v>3915.97</v>
+        <v>6698.67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2471.05</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2728.04</v>
+      </c>
+      <c r="I5" t="n">
+        <v>86.66000000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>54.66</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2782.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -569,55 +654,100 @@
       <c r="F6" t="n">
         <v>1673.05</v>
       </c>
+      <c r="G6" t="n">
+        <v>1457.39</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1624.05</v>
+      </c>
+      <c r="I6" t="n">
+        <v>51.51</v>
+      </c>
+      <c r="J6" t="n">
+        <v>49</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1673.05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6935.85</v>
+        <v>4112.1</v>
       </c>
       <c r="C7" t="n">
-        <v>7671.3</v>
+        <v>4560.16</v>
       </c>
       <c r="D7" t="n">
-        <v>241.91</v>
+        <v>141.72</v>
       </c>
       <c r="E7" t="n">
-        <v>213.03</v>
+        <v>125.9</v>
       </c>
       <c r="F7" t="n">
-        <v>7884.32</v>
+        <v>4686.06</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2654.71</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2936.11</v>
+      </c>
+      <c r="I7" t="n">
+        <v>90.21000000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3013.01</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4112.1</v>
+        <v>6935.85</v>
       </c>
       <c r="C8" t="n">
-        <v>4560.16</v>
+        <v>7671.3</v>
       </c>
       <c r="D8" t="n">
-        <v>141.72</v>
+        <v>241.91</v>
       </c>
       <c r="E8" t="n">
-        <v>125.9</v>
+        <v>213.03</v>
       </c>
       <c r="F8" t="n">
-        <v>4686.06</v>
+        <v>7884.32</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2823.75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3111.14</v>
+      </c>
+      <c r="I8" t="n">
+        <v>100.19</v>
+      </c>
+      <c r="J8" t="n">
+        <v>87.13</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3198.259999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -635,55 +765,100 @@
       <c r="F9" t="n">
         <v>2058.17</v>
       </c>
+      <c r="G9" t="n">
+        <v>1799.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2002.19</v>
+      </c>
+      <c r="I9" t="n">
+        <v>64.61</v>
+      </c>
+      <c r="J9" t="n">
+        <v>55.98</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2058.17</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8448.66</v>
+        <v>5032.28</v>
       </c>
       <c r="C10" t="n">
-        <v>9341.459999999999</v>
+        <v>5563.64</v>
       </c>
       <c r="D10" t="n">
-        <v>303.03</v>
+        <v>174.11</v>
       </c>
       <c r="E10" t="n">
-        <v>238.56</v>
+        <v>134.17</v>
       </c>
       <c r="F10" t="n">
-        <v>9580.02</v>
+        <v>5697.82</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3232.78</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3561.45</v>
+      </c>
+      <c r="I10" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>78.19</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3639.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5032.28</v>
+        <v>8448.66</v>
       </c>
       <c r="C11" t="n">
-        <v>5563.64</v>
+        <v>9341.459999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>174.11</v>
+        <v>303.03</v>
       </c>
       <c r="E11" t="n">
-        <v>134.17</v>
+        <v>238.56</v>
       </c>
       <c r="F11" t="n">
-        <v>5697.82</v>
+        <v>9580.02</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3416.38</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3777.819999999999</v>
+      </c>
+      <c r="I11" t="n">
+        <v>128.92</v>
+      </c>
+      <c r="J11" t="n">
+        <v>104.39</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3882.200000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -701,55 +876,100 @@
       <c r="F12" t="n">
         <v>2558.91</v>
       </c>
+      <c r="G12" t="n">
+        <v>2259.23</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2499.59</v>
+      </c>
+      <c r="I12" t="n">
+        <v>78.06999999999999</v>
+      </c>
+      <c r="J12" t="n">
+        <v>59.32</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2558.91</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10182.63</v>
+        <v>6054.37</v>
       </c>
       <c r="C13" t="n">
-        <v>11229.71</v>
+        <v>6687.16</v>
       </c>
       <c r="D13" t="n">
-        <v>355.71</v>
+        <v>221.34</v>
       </c>
       <c r="E13" t="n">
-        <v>298.72</v>
+        <v>169.02</v>
       </c>
       <c r="F13" t="n">
-        <v>11528.43</v>
+        <v>6856.18</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3795.14</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4187.57</v>
+      </c>
+      <c r="I13" t="n">
+        <v>143.27</v>
+      </c>
+      <c r="J13" t="n">
+        <v>109.7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4297.27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6054.37</v>
+        <v>10182.63</v>
       </c>
       <c r="C14" t="n">
-        <v>6687.16</v>
+        <v>11229.71</v>
       </c>
       <c r="D14" t="n">
-        <v>221.34</v>
+        <v>355.71</v>
       </c>
       <c r="E14" t="n">
-        <v>169.02</v>
+        <v>298.72</v>
       </c>
       <c r="F14" t="n">
-        <v>6856.18</v>
+        <v>11528.43</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4128.259999999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4542.549999999999</v>
+      </c>
+      <c r="I14" t="n">
+        <v>134.37</v>
+      </c>
+      <c r="J14" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4672.25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -767,55 +987,100 @@
       <c r="F15" t="n">
         <v>3313.44</v>
       </c>
+      <c r="G15" t="n">
+        <v>2939.29</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3238.72</v>
+      </c>
+      <c r="I15" t="n">
+        <v>99.02</v>
+      </c>
+      <c r="J15" t="n">
+        <v>74.72</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3313.44</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12805.05</v>
+        <v>7712.83</v>
       </c>
       <c r="C16" t="n">
-        <v>14024.09</v>
+        <v>8489.780000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>426.2</v>
+        <v>270.76</v>
       </c>
       <c r="E16" t="n">
-        <v>381.04</v>
+        <v>229.9</v>
       </c>
       <c r="F16" t="n">
-        <v>14405.12</v>
+        <v>8719.68</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4773.54</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5251.060000000001</v>
+      </c>
+      <c r="I16" t="n">
+        <v>171.74</v>
+      </c>
+      <c r="J16" t="n">
+        <v>155.18</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5406.24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7712.83</v>
+        <v>12805.05</v>
       </c>
       <c r="C17" t="n">
-        <v>8489.780000000001</v>
+        <v>14024.09</v>
       </c>
       <c r="D17" t="n">
-        <v>270.76</v>
+        <v>426.2</v>
       </c>
       <c r="E17" t="n">
-        <v>229.9</v>
+        <v>381.04</v>
       </c>
       <c r="F17" t="n">
-        <v>8719.68</v>
+        <v>14405.12</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5092.219999999999</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5534.309999999999</v>
+      </c>
+      <c r="I17" t="n">
+        <v>155.44</v>
+      </c>
+      <c r="J17" t="n">
+        <v>151.14</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5685.440000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -833,55 +1098,100 @@
       <c r="F18" t="n">
         <v>4144.66</v>
       </c>
+      <c r="G18" t="n">
+        <v>3667.94</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4042.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>124.78</v>
+      </c>
+      <c r="J18" t="n">
+        <v>102.56</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4144.66</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16105.67</v>
+        <v>9885.34</v>
       </c>
       <c r="C19" t="n">
-        <v>17589.26</v>
+        <v>10836.48</v>
       </c>
       <c r="D19" t="n">
-        <v>530.39</v>
+        <v>347.09</v>
       </c>
       <c r="E19" t="n">
-        <v>381.92</v>
+        <v>241.29</v>
       </c>
       <c r="F19" t="n">
-        <v>17971.18</v>
+        <v>11077.78</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6217.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6794.379999999999</v>
+      </c>
+      <c r="I19" t="n">
+        <v>222.31</v>
+      </c>
+      <c r="J19" t="n">
+        <v>138.73</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6933.120000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9885.34</v>
+        <v>16105.67</v>
       </c>
       <c r="C20" t="n">
-        <v>10836.48</v>
+        <v>17589.26</v>
       </c>
       <c r="D20" t="n">
-        <v>347.09</v>
+        <v>530.39</v>
       </c>
       <c r="E20" t="n">
-        <v>241.29</v>
+        <v>381.92</v>
       </c>
       <c r="F20" t="n">
-        <v>11077.78</v>
+        <v>17971.18</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6220.33</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6752.779999999999</v>
+      </c>
+      <c r="I20" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>140.63</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6893.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -899,55 +1209,100 @@
       <c r="F21" t="n">
         <v>5104.58</v>
       </c>
+      <c r="G21" t="n">
+        <v>4555.37</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4991.35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>152.09</v>
+      </c>
+      <c r="J21" t="n">
+        <v>113.22</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5104.58</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18963.05</v>
+        <v>11773.76</v>
       </c>
       <c r="C22" t="n">
-        <v>20708.14</v>
+        <v>12876.54</v>
       </c>
       <c r="D22" t="n">
-        <v>593.01</v>
+        <v>389.14</v>
       </c>
       <c r="E22" t="n">
-        <v>445.69</v>
+        <v>252.12</v>
       </c>
       <c r="F22" t="n">
-        <v>21153.83</v>
+        <v>13128.67</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7218.39</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7885.190000000001</v>
+      </c>
+      <c r="I22" t="n">
+        <v>237.05</v>
+      </c>
+      <c r="J22" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="K22" t="n">
+        <v>8024.09</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11773.76</v>
+        <v>18963.05</v>
       </c>
       <c r="C23" t="n">
-        <v>12876.54</v>
+        <v>20708.14</v>
       </c>
       <c r="D23" t="n">
-        <v>389.14</v>
+        <v>593.01</v>
       </c>
       <c r="E23" t="n">
-        <v>252.12</v>
+        <v>445.69</v>
       </c>
       <c r="F23" t="n">
-        <v>13128.67</v>
+        <v>21153.83</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7189.289999999999</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7831.599999999999</v>
+      </c>
+      <c r="I23" t="n">
+        <v>203.87</v>
+      </c>
+      <c r="J23" t="n">
+        <v>193.57</v>
+      </c>
+      <c r="K23" t="n">
+        <v>8025.160000000002</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -965,55 +1320,100 @@
       <c r="F24" t="n">
         <v>6211.22</v>
       </c>
+      <c r="G24" t="n">
+        <v>5564.72</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6075.76</v>
+      </c>
+      <c r="I24" t="n">
+        <v>181.97</v>
+      </c>
+      <c r="J24" t="n">
+        <v>135.46</v>
+      </c>
+      <c r="K24" t="n">
+        <v>6211.22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23087.07</v>
+        <v>14418.38</v>
       </c>
       <c r="C25" t="n">
-        <v>24964.23</v>
+        <v>15732.98</v>
       </c>
       <c r="D25" t="n">
-        <v>730.41</v>
+        <v>480.7</v>
       </c>
       <c r="E25" t="n">
-        <v>528.9</v>
+        <v>332.01</v>
       </c>
       <c r="F25" t="n">
-        <v>25493.13</v>
+        <v>16064.99</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8853.66</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9657.219999999999</v>
+      </c>
+      <c r="I25" t="n">
+        <v>298.73</v>
+      </c>
+      <c r="J25" t="n">
+        <v>196.55</v>
+      </c>
+      <c r="K25" t="n">
+        <v>9853.77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14418.38</v>
+        <v>23087.07</v>
       </c>
       <c r="C26" t="n">
-        <v>15732.98</v>
+        <v>24964.23</v>
       </c>
       <c r="D26" t="n">
-        <v>480.7</v>
+        <v>730.41</v>
       </c>
       <c r="E26" t="n">
-        <v>332.01</v>
+        <v>528.9</v>
       </c>
       <c r="F26" t="n">
-        <v>16064.99</v>
+        <v>25493.13</v>
+      </c>
+      <c r="G26" t="n">
+        <v>8668.690000000001</v>
+      </c>
+      <c r="H26" t="n">
+        <v>9231.25</v>
+      </c>
+      <c r="I26" t="n">
+        <v>249.71</v>
+      </c>
+      <c r="J26" t="n">
+        <v>196.89</v>
+      </c>
+      <c r="K26" t="n">
+        <v>9428.140000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1031,55 +1431,100 @@
       <c r="F27" t="n">
         <v>6886.55</v>
       </c>
+      <c r="G27" t="n">
+        <v>6201.13</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6810.22</v>
+      </c>
+      <c r="I27" t="n">
+        <v>201.25</v>
+      </c>
+      <c r="J27" t="n">
+        <v>76.33</v>
+      </c>
+      <c r="K27" t="n">
+        <v>6886.55</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27063.51</v>
+        <v>16316.97</v>
       </c>
       <c r="C28" t="n">
-        <v>29624.14</v>
+        <v>17893.07</v>
       </c>
       <c r="D28" t="n">
-        <v>847.51</v>
+        <v>526.05</v>
       </c>
       <c r="E28" t="n">
-        <v>301.48</v>
+        <v>197.99</v>
       </c>
       <c r="F28" t="n">
-        <v>29925.62</v>
+        <v>18091.06</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10115.84</v>
+      </c>
+      <c r="H28" t="n">
+        <v>11082.85</v>
+      </c>
+      <c r="I28" t="n">
+        <v>324.8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>121.66</v>
+      </c>
+      <c r="K28" t="n">
+        <v>11204.51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16316.97</v>
+        <v>27063.51</v>
       </c>
       <c r="C29" t="n">
-        <v>17893.07</v>
+        <v>29624.14</v>
       </c>
       <c r="D29" t="n">
-        <v>526.05</v>
+        <v>847.51</v>
       </c>
       <c r="E29" t="n">
-        <v>197.99</v>
+        <v>301.48</v>
       </c>
       <c r="F29" t="n">
-        <v>18091.06</v>
+        <v>29925.62</v>
+      </c>
+      <c r="G29" t="n">
+        <v>10746.54</v>
+      </c>
+      <c r="H29" t="n">
+        <v>11731.07</v>
+      </c>
+      <c r="I29" t="n">
+        <v>321.46</v>
+      </c>
+      <c r="J29" t="n">
+        <v>103.49</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11834.56</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1097,55 +1542,100 @@
       <c r="F30" t="n">
         <v>8294.57</v>
       </c>
+      <c r="G30" t="n">
+        <v>7445.65</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8183.34</v>
+      </c>
+      <c r="I30" t="n">
+        <v>234.32</v>
+      </c>
+      <c r="J30" t="n">
+        <v>111.23</v>
+      </c>
+      <c r="K30" t="n">
+        <v>8294.57</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30618.15</v>
+        <v>18734.7</v>
       </c>
       <c r="C31" t="n">
-        <v>33467.41</v>
+        <v>20582.42</v>
       </c>
       <c r="D31" t="n">
-        <v>929.3</v>
+        <v>583.3099999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>362.87</v>
+        <v>250.95</v>
       </c>
       <c r="F31" t="n">
-        <v>33830.28</v>
+        <v>20833.37</v>
+      </c>
+      <c r="G31" t="n">
+        <v>11289.05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>12399.08</v>
+      </c>
+      <c r="I31" t="n">
+        <v>348.99</v>
+      </c>
+      <c r="J31" t="n">
+        <v>139.72</v>
+      </c>
+      <c r="K31" t="n">
+        <v>12538.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>18734.7</v>
+        <v>30618.15</v>
       </c>
       <c r="C32" t="n">
-        <v>20582.42</v>
+        <v>33467.41</v>
       </c>
       <c r="D32" t="n">
-        <v>583.3099999999999</v>
+        <v>929.3</v>
       </c>
       <c r="E32" t="n">
-        <v>250.95</v>
+        <v>362.87</v>
       </c>
       <c r="F32" t="n">
-        <v>20833.37</v>
+        <v>33830.28</v>
+      </c>
+      <c r="G32" t="n">
+        <v>11883.45</v>
+      </c>
+      <c r="H32" t="n">
+        <v>12884.99000000001</v>
+      </c>
+      <c r="I32" t="n">
+        <v>345.99</v>
+      </c>
+      <c r="J32" t="n">
+        <v>111.92</v>
+      </c>
+      <c r="K32" t="n">
+        <v>12996.91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1163,55 +1653,100 @@
       <c r="F33" t="n">
         <v>9544.27</v>
       </c>
+      <c r="G33" t="n">
+        <v>8719.49</v>
+      </c>
+      <c r="H33" t="n">
+        <v>9453.809999999999</v>
+      </c>
+      <c r="I33" t="n">
+        <v>262.53</v>
+      </c>
+      <c r="J33" t="n">
+        <v>90.45999999999999</v>
+      </c>
+      <c r="K33" t="n">
+        <v>9544.27</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33161.46</v>
+        <v>21230.96</v>
       </c>
       <c r="C34" t="n">
-        <v>36689.82</v>
+        <v>23222.18</v>
       </c>
       <c r="D34" t="n">
-        <v>1023.05</v>
+        <v>658.35</v>
       </c>
       <c r="E34" t="n">
-        <v>357.56</v>
+        <v>223.82</v>
       </c>
       <c r="F34" t="n">
-        <v>37047.38</v>
+        <v>23446</v>
+      </c>
+      <c r="G34" t="n">
+        <v>12511.47</v>
+      </c>
+      <c r="H34" t="n">
+        <v>13768.37</v>
+      </c>
+      <c r="I34" t="n">
+        <v>395.8200000000001</v>
+      </c>
+      <c r="J34" t="n">
+        <v>133.36</v>
+      </c>
+      <c r="K34" t="n">
+        <v>13901.73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21230.96</v>
+        <v>33161.46</v>
       </c>
       <c r="C35" t="n">
-        <v>23222.18</v>
+        <v>36689.82</v>
       </c>
       <c r="D35" t="n">
-        <v>658.35</v>
+        <v>1023.05</v>
       </c>
       <c r="E35" t="n">
-        <v>223.82</v>
+        <v>357.56</v>
       </c>
       <c r="F35" t="n">
-        <v>23446</v>
+        <v>37047.38</v>
+      </c>
+      <c r="G35" t="n">
+        <v>11930.5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>13467.64</v>
+      </c>
+      <c r="I35" t="n">
+        <v>364.6999999999999</v>
+      </c>
+      <c r="J35" t="n">
+        <v>133.74</v>
+      </c>
+      <c r="K35" t="n">
+        <v>13601.38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1229,55 +1764,100 @@
       <c r="F36" t="n">
         <v>10642.67</v>
       </c>
+      <c r="G36" t="n">
+        <v>9660.290000000001</v>
+      </c>
+      <c r="H36" t="n">
+        <v>10569.11</v>
+      </c>
+      <c r="I36" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>73.56</v>
+      </c>
+      <c r="K36" t="n">
+        <v>10642.67</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34466.27</v>
+        <v>21645.99</v>
       </c>
       <c r="C37" t="n">
-        <v>37857.99</v>
+        <v>23771.58</v>
       </c>
       <c r="D37" t="n">
-        <v>1026.31</v>
+        <v>657.15</v>
       </c>
       <c r="E37" t="n">
-        <v>374.78</v>
+        <v>222.45</v>
       </c>
       <c r="F37" t="n">
-        <v>38232.77</v>
+        <v>23994.03</v>
+      </c>
+      <c r="G37" t="n">
+        <v>11985.7</v>
+      </c>
+      <c r="H37" t="n">
+        <v>13202.47</v>
+      </c>
+      <c r="I37" t="n">
+        <v>368.35</v>
+      </c>
+      <c r="J37" t="n">
+        <v>148.89</v>
+      </c>
+      <c r="K37" t="n">
+        <v>13351.36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21645.99</v>
+        <v>34466.27</v>
       </c>
       <c r="C38" t="n">
-        <v>23771.58</v>
+        <v>37857.99</v>
       </c>
       <c r="D38" t="n">
-        <v>657.15</v>
+        <v>1026.31</v>
       </c>
       <c r="E38" t="n">
-        <v>222.45</v>
+        <v>374.78</v>
       </c>
       <c r="F38" t="n">
-        <v>23994.03</v>
+        <v>38232.77</v>
+      </c>
+      <c r="G38" t="n">
+        <v>12820.28</v>
+      </c>
+      <c r="H38" t="n">
+        <v>14086.41</v>
+      </c>
+      <c r="I38" t="n">
+        <v>369.16</v>
+      </c>
+      <c r="J38" t="n">
+        <v>152.33</v>
+      </c>
+      <c r="K38" t="n">
+        <v>14238.74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1295,11 +1875,26 @@
       <c r="F39" t="n">
         <v>11078.65</v>
       </c>
+      <c r="G39" t="n">
+        <v>10070.57</v>
+      </c>
+      <c r="H39" t="n">
+        <v>11013.39</v>
+      </c>
+      <c r="I39" t="n">
+        <v>296.67</v>
+      </c>
+      <c r="J39" t="n">
+        <v>65.2600000000002</v>
+      </c>
+      <c r="K39" t="n">
+        <v>11078.65</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1317,11 +1912,26 @@
       <c r="F40" t="n">
         <v>41103.04</v>
       </c>
+      <c r="G40" t="n">
+        <v>27876.63</v>
+      </c>
+      <c r="H40" t="n">
+        <v>29822.4599999999</v>
+      </c>
+      <c r="I40" t="n">
+        <v>157.26</v>
+      </c>
+      <c r="J40" t="n">
+        <v>201.9299999999988</v>
+      </c>
+      <c r="K40" t="n">
+        <v>30024.39</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1335,6 +1945,19 @@
         <v>70.16</v>
       </c>
       <c r="F41" t="n">
+        <v>11676.17</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10814.96</v>
+      </c>
+      <c r="H41" t="n">
+        <v>11606.01</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>70.16</v>
+      </c>
+      <c r="K41" t="n">
         <v>11676.17</v>
       </c>
     </row>

--- a/data_quarter/zb/建筑业/国有及国有控股建筑业企业总收入.xlsx
+++ b/data_quarter/zb/建筑业/国有及国有控股建筑业企业总收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,31 +459,6 @@
           <t>国有及国有控股建筑业企业总收入_累计值</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业主营业务成本</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业主营业务收入</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业主营业务税金及附加</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业其他业务收入</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业总收入</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -506,21 +481,6 @@
       <c r="F2" t="n">
         <v>3296.99</v>
       </c>
-      <c r="G2" t="n">
-        <v>2851.29</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3177.37</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99.67</v>
-      </c>
-      <c r="J2" t="n">
-        <v>119.62</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3296.99</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -543,94 +503,49 @@
       <c r="F3" t="n">
         <v>1464.18</v>
       </c>
-      <c r="G3" t="n">
-        <v>1274.97</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1415.74</v>
-      </c>
-      <c r="I3" t="n">
-        <v>45.47</v>
-      </c>
-      <c r="J3" t="n">
-        <v>48.45</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1464.18</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3410.36</v>
+        <v>5881.41</v>
       </c>
       <c r="C4" t="n">
-        <v>3777.82</v>
+        <v>6505.86</v>
       </c>
       <c r="D4" t="n">
-        <v>118.92</v>
+        <v>205.58</v>
       </c>
       <c r="E4" t="n">
-        <v>138.15</v>
+        <v>192.81</v>
       </c>
       <c r="F4" t="n">
-        <v>3915.97</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2135.39</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2362.08</v>
-      </c>
-      <c r="I4" t="n">
-        <v>73.45</v>
-      </c>
-      <c r="J4" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2451.79</v>
+        <v>6698.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5881.41</v>
+        <v>3410.36</v>
       </c>
       <c r="C5" t="n">
-        <v>6505.86</v>
+        <v>3777.82</v>
       </c>
       <c r="D5" t="n">
-        <v>205.58</v>
+        <v>118.92</v>
       </c>
       <c r="E5" t="n">
-        <v>192.81</v>
+        <v>138.15</v>
       </c>
       <c r="F5" t="n">
-        <v>6698.67</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2471.05</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2728.04</v>
-      </c>
-      <c r="I5" t="n">
-        <v>86.66000000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>54.66</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2782.7</v>
+        <v>3915.97</v>
       </c>
     </row>
     <row r="6">
@@ -654,94 +569,49 @@
       <c r="F6" t="n">
         <v>1673.05</v>
       </c>
-      <c r="G6" t="n">
-        <v>1457.39</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1624.05</v>
-      </c>
-      <c r="I6" t="n">
-        <v>51.51</v>
-      </c>
-      <c r="J6" t="n">
-        <v>49</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1673.05</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4112.1</v>
+        <v>6935.85</v>
       </c>
       <c r="C7" t="n">
-        <v>4560.16</v>
+        <v>7671.3</v>
       </c>
       <c r="D7" t="n">
-        <v>141.72</v>
+        <v>241.91</v>
       </c>
       <c r="E7" t="n">
-        <v>125.9</v>
+        <v>213.03</v>
       </c>
       <c r="F7" t="n">
-        <v>4686.06</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2654.71</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2936.11</v>
-      </c>
-      <c r="I7" t="n">
-        <v>90.21000000000001</v>
-      </c>
-      <c r="J7" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3013.01</v>
+        <v>7884.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6935.85</v>
+        <v>4112.1</v>
       </c>
       <c r="C8" t="n">
-        <v>7671.3</v>
+        <v>4560.16</v>
       </c>
       <c r="D8" t="n">
-        <v>241.91</v>
+        <v>141.72</v>
       </c>
       <c r="E8" t="n">
-        <v>213.03</v>
+        <v>125.9</v>
       </c>
       <c r="F8" t="n">
-        <v>7884.32</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2823.75</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3111.14</v>
-      </c>
-      <c r="I8" t="n">
-        <v>100.19</v>
-      </c>
-      <c r="J8" t="n">
-        <v>87.13</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3198.259999999999</v>
+        <v>4686.06</v>
       </c>
     </row>
     <row r="9">
@@ -765,94 +635,49 @@
       <c r="F9" t="n">
         <v>2058.17</v>
       </c>
-      <c r="G9" t="n">
-        <v>1799.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2002.19</v>
-      </c>
-      <c r="I9" t="n">
-        <v>64.61</v>
-      </c>
-      <c r="J9" t="n">
-        <v>55.98</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2058.17</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5032.28</v>
+        <v>8448.66</v>
       </c>
       <c r="C10" t="n">
-        <v>5563.64</v>
+        <v>9341.459999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>174.11</v>
+        <v>303.03</v>
       </c>
       <c r="E10" t="n">
-        <v>134.17</v>
+        <v>238.56</v>
       </c>
       <c r="F10" t="n">
-        <v>5697.82</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3232.78</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3561.45</v>
-      </c>
-      <c r="I10" t="n">
-        <v>109.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>78.19</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3639.65</v>
+        <v>9580.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8448.66</v>
+        <v>5032.28</v>
       </c>
       <c r="C11" t="n">
-        <v>9341.459999999999</v>
+        <v>5563.64</v>
       </c>
       <c r="D11" t="n">
-        <v>303.03</v>
+        <v>174.11</v>
       </c>
       <c r="E11" t="n">
-        <v>238.56</v>
+        <v>134.17</v>
       </c>
       <c r="F11" t="n">
-        <v>9580.02</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3416.38</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3777.819999999999</v>
-      </c>
-      <c r="I11" t="n">
-        <v>128.92</v>
-      </c>
-      <c r="J11" t="n">
-        <v>104.39</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3882.200000000001</v>
+        <v>5697.82</v>
       </c>
     </row>
     <row r="12">
@@ -876,94 +701,49 @@
       <c r="F12" t="n">
         <v>2558.91</v>
       </c>
-      <c r="G12" t="n">
-        <v>2259.23</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2499.59</v>
-      </c>
-      <c r="I12" t="n">
-        <v>78.06999999999999</v>
-      </c>
-      <c r="J12" t="n">
-        <v>59.32</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2558.91</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6054.37</v>
+        <v>10182.63</v>
       </c>
       <c r="C13" t="n">
-        <v>6687.16</v>
+        <v>11229.71</v>
       </c>
       <c r="D13" t="n">
-        <v>221.34</v>
+        <v>355.71</v>
       </c>
       <c r="E13" t="n">
-        <v>169.02</v>
+        <v>298.72</v>
       </c>
       <c r="F13" t="n">
-        <v>6856.18</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3795.14</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4187.57</v>
-      </c>
-      <c r="I13" t="n">
-        <v>143.27</v>
-      </c>
-      <c r="J13" t="n">
-        <v>109.7</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4297.27</v>
+        <v>11528.43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10182.63</v>
+        <v>6054.37</v>
       </c>
       <c r="C14" t="n">
-        <v>11229.71</v>
+        <v>6687.16</v>
       </c>
       <c r="D14" t="n">
-        <v>355.71</v>
+        <v>221.34</v>
       </c>
       <c r="E14" t="n">
-        <v>298.72</v>
+        <v>169.02</v>
       </c>
       <c r="F14" t="n">
-        <v>11528.43</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4128.259999999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4542.549999999999</v>
-      </c>
-      <c r="I14" t="n">
-        <v>134.37</v>
-      </c>
-      <c r="J14" t="n">
-        <v>129.7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4672.25</v>
+        <v>6856.18</v>
       </c>
     </row>
     <row r="15">
@@ -987,94 +767,49 @@
       <c r="F15" t="n">
         <v>3313.44</v>
       </c>
-      <c r="G15" t="n">
-        <v>2939.29</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3238.72</v>
-      </c>
-      <c r="I15" t="n">
-        <v>99.02</v>
-      </c>
-      <c r="J15" t="n">
-        <v>74.72</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3313.44</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7712.83</v>
+        <v>12805.05</v>
       </c>
       <c r="C16" t="n">
-        <v>8489.780000000001</v>
+        <v>14024.09</v>
       </c>
       <c r="D16" t="n">
-        <v>270.76</v>
+        <v>426.2</v>
       </c>
       <c r="E16" t="n">
-        <v>229.9</v>
+        <v>381.04</v>
       </c>
       <c r="F16" t="n">
-        <v>8719.68</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4773.54</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5251.060000000001</v>
-      </c>
-      <c r="I16" t="n">
-        <v>171.74</v>
-      </c>
-      <c r="J16" t="n">
-        <v>155.18</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5406.24</v>
+        <v>14405.12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12805.05</v>
+        <v>7712.83</v>
       </c>
       <c r="C17" t="n">
-        <v>14024.09</v>
+        <v>8489.780000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>426.2</v>
+        <v>270.76</v>
       </c>
       <c r="E17" t="n">
-        <v>381.04</v>
+        <v>229.9</v>
       </c>
       <c r="F17" t="n">
-        <v>14405.12</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5092.219999999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5534.309999999999</v>
-      </c>
-      <c r="I17" t="n">
-        <v>155.44</v>
-      </c>
-      <c r="J17" t="n">
-        <v>151.14</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5685.440000000001</v>
+        <v>8719.68</v>
       </c>
     </row>
     <row r="18">
@@ -1098,94 +833,49 @@
       <c r="F18" t="n">
         <v>4144.66</v>
       </c>
-      <c r="G18" t="n">
-        <v>3667.94</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4042.1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>124.78</v>
-      </c>
-      <c r="J18" t="n">
-        <v>102.56</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4144.66</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9885.34</v>
+        <v>16105.67</v>
       </c>
       <c r="C19" t="n">
-        <v>10836.48</v>
+        <v>17589.26</v>
       </c>
       <c r="D19" t="n">
-        <v>347.09</v>
+        <v>530.39</v>
       </c>
       <c r="E19" t="n">
-        <v>241.29</v>
+        <v>381.92</v>
       </c>
       <c r="F19" t="n">
-        <v>11077.78</v>
-      </c>
-      <c r="G19" t="n">
-        <v>6217.4</v>
-      </c>
-      <c r="H19" t="n">
-        <v>6794.379999999999</v>
-      </c>
-      <c r="I19" t="n">
-        <v>222.31</v>
-      </c>
-      <c r="J19" t="n">
-        <v>138.73</v>
-      </c>
-      <c r="K19" t="n">
-        <v>6933.120000000001</v>
+        <v>17971.18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16105.67</v>
+        <v>9885.34</v>
       </c>
       <c r="C20" t="n">
-        <v>17589.26</v>
+        <v>10836.48</v>
       </c>
       <c r="D20" t="n">
-        <v>530.39</v>
+        <v>347.09</v>
       </c>
       <c r="E20" t="n">
-        <v>381.92</v>
+        <v>241.29</v>
       </c>
       <c r="F20" t="n">
-        <v>17971.18</v>
-      </c>
-      <c r="G20" t="n">
-        <v>6220.33</v>
-      </c>
-      <c r="H20" t="n">
-        <v>6752.779999999999</v>
-      </c>
-      <c r="I20" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>140.63</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6893.4</v>
+        <v>11077.78</v>
       </c>
     </row>
     <row r="21">
@@ -1209,94 +899,49 @@
       <c r="F21" t="n">
         <v>5104.58</v>
       </c>
-      <c r="G21" t="n">
-        <v>4555.37</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4991.35</v>
-      </c>
-      <c r="I21" t="n">
-        <v>152.09</v>
-      </c>
-      <c r="J21" t="n">
-        <v>113.22</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5104.58</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11773.76</v>
+        <v>18963.05</v>
       </c>
       <c r="C22" t="n">
-        <v>12876.54</v>
+        <v>20708.14</v>
       </c>
       <c r="D22" t="n">
-        <v>389.14</v>
+        <v>593.01</v>
       </c>
       <c r="E22" t="n">
-        <v>252.12</v>
+        <v>445.69</v>
       </c>
       <c r="F22" t="n">
-        <v>13128.67</v>
-      </c>
-      <c r="G22" t="n">
-        <v>7218.39</v>
-      </c>
-      <c r="H22" t="n">
-        <v>7885.190000000001</v>
-      </c>
-      <c r="I22" t="n">
-        <v>237.05</v>
-      </c>
-      <c r="J22" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="K22" t="n">
-        <v>8024.09</v>
+        <v>21153.83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>18963.05</v>
+        <v>11773.76</v>
       </c>
       <c r="C23" t="n">
-        <v>20708.14</v>
+        <v>12876.54</v>
       </c>
       <c r="D23" t="n">
-        <v>593.01</v>
+        <v>389.14</v>
       </c>
       <c r="E23" t="n">
-        <v>445.69</v>
+        <v>252.12</v>
       </c>
       <c r="F23" t="n">
-        <v>21153.83</v>
-      </c>
-      <c r="G23" t="n">
-        <v>7189.289999999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>7831.599999999999</v>
-      </c>
-      <c r="I23" t="n">
-        <v>203.87</v>
-      </c>
-      <c r="J23" t="n">
-        <v>193.57</v>
-      </c>
-      <c r="K23" t="n">
-        <v>8025.160000000002</v>
+        <v>13128.67</v>
       </c>
     </row>
     <row r="24">
@@ -1320,94 +965,49 @@
       <c r="F24" t="n">
         <v>6211.22</v>
       </c>
-      <c r="G24" t="n">
-        <v>5564.72</v>
-      </c>
-      <c r="H24" t="n">
-        <v>6075.76</v>
-      </c>
-      <c r="I24" t="n">
-        <v>181.97</v>
-      </c>
-      <c r="J24" t="n">
-        <v>135.46</v>
-      </c>
-      <c r="K24" t="n">
-        <v>6211.22</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14418.38</v>
+        <v>23087.07</v>
       </c>
       <c r="C25" t="n">
-        <v>15732.98</v>
+        <v>24964.23</v>
       </c>
       <c r="D25" t="n">
-        <v>480.7</v>
+        <v>730.41</v>
       </c>
       <c r="E25" t="n">
-        <v>332.01</v>
+        <v>528.9</v>
       </c>
       <c r="F25" t="n">
-        <v>16064.99</v>
-      </c>
-      <c r="G25" t="n">
-        <v>8853.66</v>
-      </c>
-      <c r="H25" t="n">
-        <v>9657.219999999999</v>
-      </c>
-      <c r="I25" t="n">
-        <v>298.73</v>
-      </c>
-      <c r="J25" t="n">
-        <v>196.55</v>
-      </c>
-      <c r="K25" t="n">
-        <v>9853.77</v>
+        <v>25493.13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>23087.07</v>
+        <v>14418.38</v>
       </c>
       <c r="C26" t="n">
-        <v>24964.23</v>
+        <v>15732.98</v>
       </c>
       <c r="D26" t="n">
-        <v>730.41</v>
+        <v>480.7</v>
       </c>
       <c r="E26" t="n">
-        <v>528.9</v>
+        <v>332.01</v>
       </c>
       <c r="F26" t="n">
-        <v>25493.13</v>
-      </c>
-      <c r="G26" t="n">
-        <v>8668.690000000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>9231.25</v>
-      </c>
-      <c r="I26" t="n">
-        <v>249.71</v>
-      </c>
-      <c r="J26" t="n">
-        <v>196.89</v>
-      </c>
-      <c r="K26" t="n">
-        <v>9428.140000000001</v>
+        <v>16064.99</v>
       </c>
     </row>
     <row r="27">
@@ -1431,94 +1031,49 @@
       <c r="F27" t="n">
         <v>6886.55</v>
       </c>
-      <c r="G27" t="n">
-        <v>6201.13</v>
-      </c>
-      <c r="H27" t="n">
-        <v>6810.22</v>
-      </c>
-      <c r="I27" t="n">
-        <v>201.25</v>
-      </c>
-      <c r="J27" t="n">
-        <v>76.33</v>
-      </c>
-      <c r="K27" t="n">
-        <v>6886.55</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16316.97</v>
+        <v>27063.51</v>
       </c>
       <c r="C28" t="n">
-        <v>17893.07</v>
+        <v>29624.14</v>
       </c>
       <c r="D28" t="n">
-        <v>526.05</v>
+        <v>847.51</v>
       </c>
       <c r="E28" t="n">
-        <v>197.99</v>
+        <v>301.48</v>
       </c>
       <c r="F28" t="n">
-        <v>18091.06</v>
-      </c>
-      <c r="G28" t="n">
-        <v>10115.84</v>
-      </c>
-      <c r="H28" t="n">
-        <v>11082.85</v>
-      </c>
-      <c r="I28" t="n">
-        <v>324.8</v>
-      </c>
-      <c r="J28" t="n">
-        <v>121.66</v>
-      </c>
-      <c r="K28" t="n">
-        <v>11204.51</v>
+        <v>29925.62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>27063.51</v>
+        <v>16316.97</v>
       </c>
       <c r="C29" t="n">
-        <v>29624.14</v>
+        <v>17893.07</v>
       </c>
       <c r="D29" t="n">
-        <v>847.51</v>
+        <v>526.05</v>
       </c>
       <c r="E29" t="n">
-        <v>301.48</v>
+        <v>197.99</v>
       </c>
       <c r="F29" t="n">
-        <v>29925.62</v>
-      </c>
-      <c r="G29" t="n">
-        <v>10746.54</v>
-      </c>
-      <c r="H29" t="n">
-        <v>11731.07</v>
-      </c>
-      <c r="I29" t="n">
-        <v>321.46</v>
-      </c>
-      <c r="J29" t="n">
-        <v>103.49</v>
-      </c>
-      <c r="K29" t="n">
-        <v>11834.56</v>
+        <v>18091.06</v>
       </c>
     </row>
     <row r="30">
@@ -1542,94 +1097,49 @@
       <c r="F30" t="n">
         <v>8294.57</v>
       </c>
-      <c r="G30" t="n">
-        <v>7445.65</v>
-      </c>
-      <c r="H30" t="n">
-        <v>8183.34</v>
-      </c>
-      <c r="I30" t="n">
-        <v>234.32</v>
-      </c>
-      <c r="J30" t="n">
-        <v>111.23</v>
-      </c>
-      <c r="K30" t="n">
-        <v>8294.57</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18734.7</v>
+        <v>30618.15</v>
       </c>
       <c r="C31" t="n">
-        <v>20582.42</v>
+        <v>33467.41</v>
       </c>
       <c r="D31" t="n">
-        <v>583.3099999999999</v>
+        <v>929.3</v>
       </c>
       <c r="E31" t="n">
-        <v>250.95</v>
+        <v>362.87</v>
       </c>
       <c r="F31" t="n">
-        <v>20833.37</v>
-      </c>
-      <c r="G31" t="n">
-        <v>11289.05</v>
-      </c>
-      <c r="H31" t="n">
-        <v>12399.08</v>
-      </c>
-      <c r="I31" t="n">
-        <v>348.99</v>
-      </c>
-      <c r="J31" t="n">
-        <v>139.72</v>
-      </c>
-      <c r="K31" t="n">
-        <v>12538.8</v>
+        <v>33830.28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30618.15</v>
+        <v>18734.7</v>
       </c>
       <c r="C32" t="n">
-        <v>33467.41</v>
+        <v>20582.42</v>
       </c>
       <c r="D32" t="n">
-        <v>929.3</v>
+        <v>583.3099999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>362.87</v>
+        <v>250.95</v>
       </c>
       <c r="F32" t="n">
-        <v>33830.28</v>
-      </c>
-      <c r="G32" t="n">
-        <v>11883.45</v>
-      </c>
-      <c r="H32" t="n">
-        <v>12884.99000000001</v>
-      </c>
-      <c r="I32" t="n">
-        <v>345.99</v>
-      </c>
-      <c r="J32" t="n">
-        <v>111.92</v>
-      </c>
-      <c r="K32" t="n">
-        <v>12996.91</v>
+        <v>20833.37</v>
       </c>
     </row>
     <row r="33">
@@ -1653,94 +1163,49 @@
       <c r="F33" t="n">
         <v>9544.27</v>
       </c>
-      <c r="G33" t="n">
-        <v>8719.49</v>
-      </c>
-      <c r="H33" t="n">
-        <v>9453.809999999999</v>
-      </c>
-      <c r="I33" t="n">
-        <v>262.53</v>
-      </c>
-      <c r="J33" t="n">
-        <v>90.45999999999999</v>
-      </c>
-      <c r="K33" t="n">
-        <v>9544.27</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21230.96</v>
+        <v>33161.46</v>
       </c>
       <c r="C34" t="n">
-        <v>23222.18</v>
+        <v>36689.82</v>
       </c>
       <c r="D34" t="n">
-        <v>658.35</v>
+        <v>1023.05</v>
       </c>
       <c r="E34" t="n">
-        <v>223.82</v>
+        <v>357.56</v>
       </c>
       <c r="F34" t="n">
-        <v>23446</v>
-      </c>
-      <c r="G34" t="n">
-        <v>12511.47</v>
-      </c>
-      <c r="H34" t="n">
-        <v>13768.37</v>
-      </c>
-      <c r="I34" t="n">
-        <v>395.8200000000001</v>
-      </c>
-      <c r="J34" t="n">
-        <v>133.36</v>
-      </c>
-      <c r="K34" t="n">
-        <v>13901.73</v>
+        <v>37047.38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>33161.46</v>
+        <v>21230.96</v>
       </c>
       <c r="C35" t="n">
-        <v>36689.82</v>
+        <v>23222.18</v>
       </c>
       <c r="D35" t="n">
-        <v>1023.05</v>
+        <v>658.35</v>
       </c>
       <c r="E35" t="n">
-        <v>357.56</v>
+        <v>223.82</v>
       </c>
       <c r="F35" t="n">
-        <v>37047.38</v>
-      </c>
-      <c r="G35" t="n">
-        <v>11930.5</v>
-      </c>
-      <c r="H35" t="n">
-        <v>13467.64</v>
-      </c>
-      <c r="I35" t="n">
-        <v>364.6999999999999</v>
-      </c>
-      <c r="J35" t="n">
-        <v>133.74</v>
-      </c>
-      <c r="K35" t="n">
-        <v>13601.38</v>
+        <v>23446</v>
       </c>
     </row>
     <row r="36">
@@ -1764,94 +1229,49 @@
       <c r="F36" t="n">
         <v>10642.67</v>
       </c>
-      <c r="G36" t="n">
-        <v>9660.290000000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>10569.11</v>
-      </c>
-      <c r="I36" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>73.56</v>
-      </c>
-      <c r="K36" t="n">
-        <v>10642.67</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21645.99</v>
+        <v>34466.27</v>
       </c>
       <c r="C37" t="n">
-        <v>23771.58</v>
+        <v>37857.99</v>
       </c>
       <c r="D37" t="n">
-        <v>657.15</v>
+        <v>1026.31</v>
       </c>
       <c r="E37" t="n">
-        <v>222.45</v>
+        <v>374.78</v>
       </c>
       <c r="F37" t="n">
-        <v>23994.03</v>
-      </c>
-      <c r="G37" t="n">
-        <v>11985.7</v>
-      </c>
-      <c r="H37" t="n">
-        <v>13202.47</v>
-      </c>
-      <c r="I37" t="n">
-        <v>368.35</v>
-      </c>
-      <c r="J37" t="n">
-        <v>148.89</v>
-      </c>
-      <c r="K37" t="n">
-        <v>13351.36</v>
+        <v>38232.77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>34466.27</v>
+        <v>21645.99</v>
       </c>
       <c r="C38" t="n">
-        <v>37857.99</v>
+        <v>23771.58</v>
       </c>
       <c r="D38" t="n">
-        <v>1026.31</v>
+        <v>657.15</v>
       </c>
       <c r="E38" t="n">
-        <v>374.78</v>
+        <v>222.45</v>
       </c>
       <c r="F38" t="n">
-        <v>38232.77</v>
-      </c>
-      <c r="G38" t="n">
-        <v>12820.28</v>
-      </c>
-      <c r="H38" t="n">
-        <v>14086.41</v>
-      </c>
-      <c r="I38" t="n">
-        <v>369.16</v>
-      </c>
-      <c r="J38" t="n">
-        <v>152.33</v>
-      </c>
-      <c r="K38" t="n">
-        <v>14238.74</v>
+        <v>23994.03</v>
       </c>
     </row>
     <row r="39">
@@ -1875,21 +1295,6 @@
       <c r="F39" t="n">
         <v>11078.65</v>
       </c>
-      <c r="G39" t="n">
-        <v>10070.57</v>
-      </c>
-      <c r="H39" t="n">
-        <v>11013.39</v>
-      </c>
-      <c r="I39" t="n">
-        <v>296.67</v>
-      </c>
-      <c r="J39" t="n">
-        <v>65.2600000000002</v>
-      </c>
-      <c r="K39" t="n">
-        <v>11078.65</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1911,21 +1316,6 @@
       </c>
       <c r="F40" t="n">
         <v>41103.04</v>
-      </c>
-      <c r="G40" t="n">
-        <v>27876.63</v>
-      </c>
-      <c r="H40" t="n">
-        <v>29822.4599999999</v>
-      </c>
-      <c r="I40" t="n">
-        <v>157.26</v>
-      </c>
-      <c r="J40" t="n">
-        <v>201.9299999999988</v>
-      </c>
-      <c r="K40" t="n">
-        <v>30024.39</v>
       </c>
     </row>
     <row r="41">
@@ -1945,19 +1335,6 @@
         <v>70.16</v>
       </c>
       <c r="F41" t="n">
-        <v>11676.17</v>
-      </c>
-      <c r="G41" t="n">
-        <v>10814.96</v>
-      </c>
-      <c r="H41" t="n">
-        <v>11606.01</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>70.16</v>
-      </c>
-      <c r="K41" t="n">
         <v>11676.17</v>
       </c>
     </row>
